--- a/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 13,69</t>
+          <t>3,93; 13,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 16,14</t>
+          <t>6,71; 15,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 13,15</t>
+          <t>6,38; 13,54</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 17,52</t>
+          <t>9,43; 17,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 15,16</t>
+          <t>9,29; 15,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 15,24</t>
+          <t>10,27; 15,37</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 14,13</t>
+          <t>8,85; 14,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,53</t>
+          <t>5,7; 9,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,25</t>
+          <t>7,74; 11,16</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,78</t>
+          <t>5,35; 10,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,1</t>
+          <t>9,61; 15,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,56</t>
+          <t>7,93; 11,69</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 11,94</t>
+          <t>7,09; 11,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,86</t>
+          <t>8,79; 13,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 11,73</t>
+          <t>8,64; 11,57</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,42; 12,04</t>
+          <t>8,32; 12,07</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 41,8</t>
+          <t>8,61; 43,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,17; 34,48</t>
+          <t>9,17; 33,06</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,64; 10,91</t>
+          <t>8,62; 10,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,88; 21,4</t>
+          <t>9,95; 23,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,79; 17,31</t>
+          <t>9,71; 16,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 13,42</t>
+          <t>3,72; 13,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,71; 15,93</t>
+          <t>6,85; 16,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 13,54</t>
+          <t>6,46; 13,15</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,43; 17,39</t>
+          <t>9,62; 17,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,29; 15,82</t>
+          <t>8,9; 15,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,37</t>
+          <t>9,92; 15,24</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,85; 14,32</t>
+          <t>8,3; 14,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,7; 9,72</t>
+          <t>5,77; 9,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 11,16</t>
+          <t>7,77; 11,25</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 10,05</t>
+          <t>5,5; 9,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,13</t>
+          <t>9,68; 15,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,93; 11,69</t>
+          <t>8,1; 11,56</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,09; 11,7</t>
+          <t>7,19; 11,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,79; 13,09</t>
+          <t>8,72; 12,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,64; 11,57</t>
+          <t>8,51; 11,73</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 12,07</t>
+          <t>8,42; 12,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 43,66</t>
+          <t>8,59; 41,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,17; 33,06</t>
+          <t>9,17; 34,48</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,62; 10,9</t>
+          <t>8,64; 10,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,95; 23,47</t>
+          <t>9,88; 21,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,71; 16,99</t>
+          <t>9,79; 17,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>8,76%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 13,69</t>
+          <t>3,46; 13,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,85; 16,14</t>
+          <t>6,54; 15,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 13,15</t>
+          <t>5,99; 12,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 17,52</t>
+          <t>9,37; 17,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,9; 15,16</t>
+          <t>6,4; 13,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 15,24</t>
+          <t>8,73; 14,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 14,13</t>
+          <t>8,2; 13,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,53</t>
+          <t>5,05; 9,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 11,25</t>
+          <t>7,28; 10,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>7,98%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,78</t>
+          <t>2,38; 8,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,1</t>
+          <t>8,86; 13,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,1; 11,56</t>
+          <t>5,17; 10,24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 11,94</t>
+          <t>6,95; 11,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,86</t>
+          <t>8,53; 12,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 11,73</t>
+          <t>8,24; 11,41</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>38,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>27,97%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,42; 12,04</t>
+          <t>7,91; 13,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,59; 41,8</t>
+          <t>6,92; 77,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,17; 34,48</t>
+          <t>8,33; 65,52</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,81%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>9,6%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,64; 10,91</t>
+          <t>6,72; 12,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,88; 21,4</t>
+          <t>7,84; 12,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,79; 17,31</t>
+          <t>8,09; 11,42</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8,88%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14,6%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6,96; 10,24</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9,2; 29,44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8,92; 22,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 13,21</t>
+          <t>3,82; 13,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,54; 15,65</t>
+          <t>6,58; 16,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,99; 12,52</t>
+          <t>5,89; 12,82</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,37; 17,3</t>
+          <t>9,25; 17,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 13,85</t>
+          <t>6,14; 13,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,73; 14,42</t>
+          <t>8,36; 14,18</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,95</t>
+          <t>8,53; 14,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 9,08</t>
+          <t>5,1; 9,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 10,96</t>
+          <t>7,23; 10,58</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 8,07</t>
+          <t>2,1; 8,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,86; 13,74</t>
+          <t>8,92; 13,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 10,24</t>
+          <t>4,19; 10,07</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,95; 11,53</t>
+          <t>7,02; 11,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,53; 12,51</t>
+          <t>8,61; 12,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,24; 11,41</t>
+          <t>8,22; 11,31</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,91; 13,12</t>
+          <t>7,88; 12,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,92; 77,48</t>
+          <t>6,82; 74,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,33; 65,52</t>
+          <t>8,45; 65,81</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,72; 12,06</t>
+          <t>6,69; 11,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,84; 12,04</t>
+          <t>8,02; 12,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,09; 11,42</t>
+          <t>8,15; 11,35</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,96; 10,24</t>
+          <t>6,92; 10,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,2; 29,44</t>
+          <t>9,31; 32,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,92; 22,48</t>
+          <t>8,86; 21,95</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>29813</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>32688</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>62501</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15295; 55353</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20618; 50713</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42012; 91447</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>54290</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>53765</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>108055</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>39185; 73276</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31431; 70944</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>78182; 132628</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>59162</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41874</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>101036</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45749; 77072</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>30148; 54852</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81547; 119308</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>48998</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>78663</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>127661</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>18585; 76021</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>63500; 98377</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>67057; 161009</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>50620</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>57484</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>108103</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>39387; 63941</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>47110; 68217</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>91085; 125429</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>38056</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>234952</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>273008</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>29020; 47213</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>41457; 450976</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>82491; 642307</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>26019</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>41984</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>68003</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>18910; 33790</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>34155; 52396</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>57719; 80451</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>306958</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>541409</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>848367</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>239361; 350675</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>345188; 1214652</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>634823; 1573330</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>